--- a/Rephrased_Responses_By_GPT_Models.xlsx
+++ b/Rephrased_Responses_By_GPT_Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feifeihan/Desktop/research/IJAIED Paper/rephraseAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52C1FCC-6141-0C4F-9A8F-62075B55F7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391B70F-FA26-D84C-8BD7-1287D0A07DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="2000" windowWidth="24640" windowHeight="13420" activeTab="2" xr2:uid="{44857BCD-AC3F-D84C-9606-30795FC12AA3}"/>
+    <workbookView xWindow="960" yWindow="1660" windowWidth="24640" windowHeight="13420" activeTab="2" xr2:uid="{44857BCD-AC3F-D84C-9606-30795FC12AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Praise" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="298">
   <si>
     <t>Lesson Name</t>
   </si>
@@ -935,7 +935,16 @@
     <t>Can you explain what you think the blue tick marks on two sides of the triangle represent?</t>
   </si>
   <si>
-    <t>What exactly would you say to Lucy regarding her mistake to effectively respond in a way that increases her motivation to learn?</t>
+    <t>1. What exactly would you say to Lucy regarding her mistake to effectively respond in a way that increases her motivation to learn?</t>
+  </si>
+  <si>
+    <t>9. What exactly would you say to Kanye to effectively respond in a way that increases his motivation to learn ?</t>
+  </si>
+  <si>
+    <t>1. What exactly would you say to Kanye to effectively respond in a way that increases his motivation to learn ?</t>
+  </si>
+  <si>
+    <t>9. What exactly would you say to Lucy regarding her mistake to effectively respond in a way that increases her motivation to learn?</t>
   </si>
 </sst>
 </file>
@@ -992,8 +1001,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF1F1F1F"/>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1531,7 +1540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +1680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -6449,12 +6458,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8914D0D9-C63C-CB4A-B1A3-49A5A285A5D4}">
   <dimension ref="A1:D999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="73" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6476,7 +6486,7 @@
       <c r="A2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C2" t="s">
@@ -6490,7 +6500,7 @@
       <c r="A3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C3" t="s">
@@ -6504,7 +6514,7 @@
       <c r="A4" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C4" t="s">
@@ -6518,7 +6528,7 @@
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C5" t="s">
@@ -6532,7 +6542,7 @@
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C6" t="s">
@@ -6546,7 +6556,7 @@
       <c r="A7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C7" t="s">
@@ -6560,7 +6570,7 @@
       <c r="A8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C8" t="s">
@@ -6574,7 +6584,7 @@
       <c r="A9" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C9" t="s">
@@ -6588,7 +6598,7 @@
       <c r="A10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C10" t="s">
@@ -6602,7 +6612,7 @@
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C11" t="s">
@@ -6616,7 +6626,7 @@
       <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C12" t="s">
@@ -6630,7 +6640,7 @@
       <c r="A13" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C13" t="s">
@@ -6644,7 +6654,7 @@
       <c r="A14" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C14" t="s">
@@ -6658,7 +6668,7 @@
       <c r="A15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C15" t="s">
@@ -6672,7 +6682,7 @@
       <c r="A16" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C16" t="s">
@@ -6686,7 +6696,7 @@
       <c r="A17" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C17" t="s">
@@ -6696,12 +6706,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C18" t="s">
         <v>105</v>
@@ -6710,12 +6720,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C19" t="s">
         <v>107</v>
@@ -6724,12 +6734,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C20" t="s">
         <v>109</v>
@@ -6738,12 +6748,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C21" t="s">
         <v>111</v>
@@ -6756,8 +6766,8 @@
       <c r="A22" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>294</v>
+      <c r="B22" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C22" t="s">
         <v>113</v>
@@ -6770,8 +6780,8 @@
       <c r="A23" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>294</v>
+      <c r="B23" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C23" t="s">
         <v>115</v>
@@ -6784,8 +6794,8 @@
       <c r="A24" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>294</v>
+      <c r="B24" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C24" t="s">
         <v>117</v>
@@ -6798,8 +6808,8 @@
       <c r="A25" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>294</v>
+      <c r="B25" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C25" t="s">
         <v>119</v>
@@ -6812,8 +6822,8 @@
       <c r="A26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>294</v>
+      <c r="B26" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C26" t="s">
         <v>121</v>
@@ -6826,8 +6836,8 @@
       <c r="A27" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>294</v>
+      <c r="B27" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C27" t="s">
         <v>123</v>
@@ -6840,8 +6850,8 @@
       <c r="A28" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>294</v>
+      <c r="B28" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C28" t="s">
         <v>125</v>
@@ -6854,8 +6864,8 @@
       <c r="A29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>294</v>
+      <c r="B29" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C29" t="s">
         <v>127</v>
@@ -6868,8 +6878,8 @@
       <c r="A30" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>294</v>
+      <c r="B30" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C30" t="s">
         <v>128</v>
@@ -6882,8 +6892,8 @@
       <c r="A31" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>294</v>
+      <c r="B31" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C31" t="s">
         <v>130</v>
@@ -6896,8 +6906,8 @@
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>294</v>
+      <c r="B32" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C32" t="s">
         <v>132</v>
@@ -6910,8 +6920,8 @@
       <c r="A33" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>294</v>
+      <c r="B33" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C33" t="s">
         <v>134</v>
@@ -6924,8 +6934,8 @@
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>294</v>
+      <c r="B34" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C34" t="s">
         <v>136</v>
@@ -6938,8 +6948,8 @@
       <c r="A35" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>294</v>
+      <c r="B35" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C35" t="s">
         <v>138</v>
@@ -6952,8 +6962,8 @@
       <c r="A36" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>294</v>
+      <c r="B36" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C36" t="s">
         <v>140</v>
@@ -6966,8 +6976,8 @@
       <c r="A37" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>294</v>
+      <c r="B37" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C37" t="s">
         <v>142</v>
@@ -6980,8 +6990,8 @@
       <c r="A38" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>294</v>
+      <c r="B38" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C38" t="s">
         <v>144</v>
@@ -6994,8 +7004,8 @@
       <c r="A39" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>294</v>
+      <c r="B39" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C39" t="s">
         <v>146</v>
@@ -7008,8 +7018,8 @@
       <c r="A40" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>294</v>
+      <c r="B40" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C40" t="s">
         <v>147</v>
@@ -7022,8 +7032,8 @@
       <c r="A41" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>294</v>
+      <c r="B41" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C41" t="s">
         <v>149</v>
@@ -7036,8 +7046,8 @@
       <c r="A42" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>294</v>
+      <c r="B42" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C42" t="s">
         <v>151</v>
@@ -7050,8 +7060,8 @@
       <c r="A43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>294</v>
+      <c r="B43" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C43" t="s">
         <v>153</v>
@@ -7064,8 +7074,8 @@
       <c r="A44" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>294</v>
+      <c r="B44" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C44" t="s">
         <v>155</v>
@@ -7078,8 +7088,8 @@
       <c r="A45" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>294</v>
+      <c r="B45" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C45" t="s">
         <v>157</v>
@@ -7092,8 +7102,8 @@
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>294</v>
+      <c r="B46" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C46" t="s">
         <v>130</v>
@@ -7106,8 +7116,8 @@
       <c r="A47" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>294</v>
+      <c r="B47" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C47" t="s">
         <v>159</v>
@@ -7120,8 +7130,8 @@
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>294</v>
+      <c r="B48" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C48" t="s">
         <v>161</v>
@@ -7134,8 +7144,8 @@
       <c r="A49" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>294</v>
+      <c r="B49" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C49" t="s">
         <v>163</v>
@@ -7148,8 +7158,8 @@
       <c r="A50" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>294</v>
+      <c r="B50" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C50" t="s">
         <v>165</v>
@@ -7162,8 +7172,8 @@
       <c r="A51" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>294</v>
+      <c r="B51" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C51" t="s">
         <v>167</v>
@@ -7176,8 +7186,8 @@
       <c r="A52" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>294</v>
+      <c r="B52" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C52" t="s">
         <v>169</v>
@@ -7190,8 +7200,8 @@
       <c r="A53" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>294</v>
+      <c r="B53" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C53" t="s">
         <v>171</v>
@@ -7204,8 +7214,8 @@
       <c r="A54" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>294</v>
+      <c r="B54" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C54" t="s">
         <v>75</v>
